--- a/theater/caixiao/scenarios.xlsx
+++ b/theater/caixiao/scenarios.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeming/PycharmProjects/aisouleditorfiles/caixiao/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeming/PycharmProjects/Awada/theater/caixiao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F61AF3-4DE4-B94E-9C8B-FF89792FBED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555CB364-6F66-464C-B777-E9CD629BC52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="awake" sheetId="2" r:id="rId1"/>
+    <sheet name="seeagain" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>DESCRIPTIONTEXT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +48,14 @@
   </si>
   <si>
     <t>孙若貌似发现了自己身上的秘密，她来找你了解更多情况，你觉得早点让她明白好像也不错，同时你也想借此跟未来的领袖搞好关系，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangjiayi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你没想到张家怡会突然出现在这里，但你马上冷静了下来，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973AF817-9C21-984B-9130-7A0010C51C77}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -483,4 +492,47 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17CB8BFC-CFFE-7C42-A50E-69D5D903700A}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="173" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" ht="25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" ht="24">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>